--- a/ValueSet-stroke-etiology-vs.xlsx
+++ b/ValueSet-stroke-etiology-vs.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -99,52 +100,31 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>http://testSK.org/CodeSystem/stroke-etiology-cs</t>
+  </si>
+  <si>
     <t>Concept</t>
   </si>
   <si>
-    <t>724425005</t>
-  </si>
-  <si>
-    <t>Cerebral ischemic stroke due to intracranial large artery atherosclerosis (disorder)</t>
-  </si>
-  <si>
-    <t>724426006</t>
-  </si>
-  <si>
-    <t>Cerebral ischemic stroke due to extracranial large artery atherosclerosis (disorder)</t>
-  </si>
-  <si>
-    <t>1251566005</t>
-  </si>
-  <si>
-    <t>Embolism from heart (disorder)</t>
-  </si>
-  <si>
-    <t>404684003</t>
-  </si>
-  <si>
-    <t>Clinical finding (finding)</t>
-  </si>
-  <si>
     <t>16891111000119104</t>
   </si>
   <si>
     <t>Cryptogenic stroke (disorder)</t>
   </si>
   <si>
-    <t>230698000</t>
-  </si>
-  <si>
-    <t>Lacunar infarction (disorder)</t>
-  </si>
-  <si>
-    <t>443929000</t>
-  </si>
-  <si>
-    <t>Small vessel cerebrovascular disease (disorder)</t>
-  </si>
-  <si>
-    <t>System URI</t>
+    <t>413758000</t>
+  </si>
+  <si>
+    <t>Cardioembolic stroke (disorder)</t>
   </si>
   <si>
     <t>http://snomed.info/sct</t>
@@ -414,7 +394,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -428,80 +408,83 @@
       <c r="A1" t="s" s="1">
         <v>28</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>22</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>30</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>33</v>
       </c>
+      <c r="B2" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>21</v>
+      </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
         <v>37</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-stroke-etiology-vs.xlsx
+++ b/ValueSet-stroke-etiology-vs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Property</t>
   </si>
@@ -91,13 +91,19 @@
     <t>Purpose</t>
   </si>
   <si>
+    <t>To support classification of stroke etiology using a mix of local codes and selected SNOMED CT concepts.</t>
+  </si>
+  <si>
     <t>Copyright</t>
   </si>
   <si>
+    <t>This value set includes locally governed concepts and SNOMED CT® content. SNOMED CT® is distributed by SNOMED International.</t>
+  </si>
+  <si>
     <t>Immutable</t>
   </si>
   <si>
-    <t>BooleanType[null]</t>
+    <t>BooleanType[false]</t>
   </si>
   <si>
     <t>Codes</t>
@@ -371,20 +377,24 @@
       <c r="A13" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -406,12 +416,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -424,10 +434,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -449,7 +459,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>22</v>
@@ -457,18 +467,18 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -481,10 +491,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
